--- a/Journaux_de_travail/Daniel.xlsx
+++ b/Journaux_de_travail/Daniel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -45,10 +45,22 @@
      - etc</t>
   </si>
   <si>
-    <t>- Test de l'application et de ses fonctionnalités</t>
-  </si>
-  <si>
-    <t>- Modification des règles du jeu sur le repo distant</t>
+    <t>Modification des règles du jeu sur le repo distant</t>
+  </si>
+  <si>
+    <t>Test simple de l'application et de ses fonctionnalités</t>
+  </si>
+  <si>
+    <t>Analyse de l'application : partie simple</t>
+  </si>
+  <si>
+    <t>Analyse de l'application : partie tournoi</t>
+  </si>
+  <si>
+    <t>Diagramme de classe côté serveur</t>
+  </si>
+  <si>
+    <t>Début diagramme de classe (serveur, client et common)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +539,7 @@
         <v>42999</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>0.5</v>
@@ -538,31 +550,55 @@
         <v>42999</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43004</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6"/>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="3">
+        <v>43011</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="3">
+        <v>43016</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -670,7 +706,7 @@
       </c>
       <c r="C32" s="7">
         <f>SUM(C5:C31)</f>
-        <v>4.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Daniel.xlsx
+++ b/Journaux_de_travail/Daniel.xlsx
@@ -2,24 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\Telegram Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Journal de travail</t>
+  </si>
+  <si>
+    <t>Daniel Palumbo</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +39,6 @@
   </si>
   <si>
     <t>Heures</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Journal de travail</t>
-  </si>
-  <si>
-    <t>Daniel Palumbo</t>
   </si>
   <si>
     <t>- Discussion avec les membres du groupe
@@ -57,10 +59,89 @@
     <t>Analyse de l'application : partie tournoi</t>
   </si>
   <si>
+    <t>Début diagramme de classe (serveur, client et common)</t>
+  </si>
+  <si>
     <t>Diagramme de classe côté serveur</t>
   </si>
   <si>
-    <t>Début diagramme de classe (serveur, client et common)</t>
+    <t xml:space="preserve">Liste des fonctionnalités </t>
+  </si>
+  <si>
+    <t>Planification de l’implémentation des fonctionnalités</t>
+  </si>
+  <si>
+    <t>Discussion sur l’utilisation d’une REST API</t>
+  </si>
+  <si>
+    <t>Discussion sur l’utilisation du protocole HTTP</t>
+  </si>
+  <si>
+    <t>Création de modèle (MVC)</t>
+  </si>
+  <si>
+    <t>Création de ce qui sera le GameController</t>
+  </si>
+  <si>
+    <t>Création de la classe chargeant un dictionnaire suivant la langue des joueurs (1 seule instanciation par type de dictionnaire)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion avec les membres du groupes :
+- Attribution des tâches
+- Structure du projet et des paquets
+- Discussion avec le binôme sur la répartition de nos tâches
+</t>
+  </si>
+  <si>
+    <t>Ajout de getter et setter intelligent dans la classe Side</t>
+  </si>
+  <si>
+    <t>Refactoring des modèles existants dans les modules Common et Server</t>
+  </si>
+  <si>
+    <t>Discussion avec les membres du groupe sur le refactoring a effectué et des adaptations a effectué du côté client</t>
+  </si>
+  <si>
+    <t>Création d'un service pour le Game</t>
+  </si>
+  <si>
+    <t>Suppression de classe devenue inutile ou redondante</t>
+  </si>
+  <si>
+    <t>Refactoring dû aux changements effectués par Antoine, correction de code dû aux erreurs renvoyées et modification des tests du côté serveur (le client sera corrigé demain)</t>
+  </si>
+  <si>
+    <t>Création de classes Dto supplémentaires afin de renvoyer un minimum d'information au client (PlayerSummaryDto au lieu de PlayerDto)</t>
+  </si>
+  <si>
+    <t>Réparation du client afin que le groupe s'occupant de l'interface puisse travailler</t>
+  </si>
+  <si>
+    <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
+  </si>
+  <si>
+    <t>Modification des diagrammes de classes</t>
+  </si>
+  <si>
+    <t>Création de la logique pour faire jouer l’AI (avec difficulté dépendant du joueur)</t>
+  </si>
+  <si>
+    <t>Discussion avec Christopher d'un refactoring pour passer le travail effectuer en une structure DTO-DAO afin d'éviter d'envoyer des annotations liées à la BD ou au serveur (le client n'a pas besoin de le savoir)</t>
+  </si>
+  <si>
+    <t>Ajout de méthodes et d’annotations (spring) pour pouvoir jouer une partie et création des méthodes dans le GameController</t>
+  </si>
+  <si>
+    <t>Lecture et apprentissage du l’utilisation de spring, de la création de requête HTTP en java et de l'utilisation de hibernate</t>
+  </si>
+  <si>
+    <t>Discussion avec les membre du groupe sur l'avancement globale du projet et l'utilisation de spring</t>
+  </si>
+  <si>
+    <t>Rajout d'Exception pour la classe GameService qui sont renvoyé au GameController (le système d'envoi de l'erreur au client sera discuté dans les prochain jours avec Christopher)</t>
   </si>
 </sst>
 </file>
@@ -73,40 +154,40 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -118,18 +199,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,46 +220,60 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +308,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -270,9 +433,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,9 +468,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -487,230 +650,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="9">
         <v>42997</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>42999</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>42999</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43004</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43008</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>42999</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43011</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43016</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43018</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>43018</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43018</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>43018</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>75892</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>43021</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43029</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>43029</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>43029</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>43030</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>43031</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>43032</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>43032</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43033</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>43033</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>43033</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43039</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42999</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43004</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>43008</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43011</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>43016</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7">
-        <f>SUM(C5:C31)</f>
-        <v>16</v>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>43044</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>43045</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>43045</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="13">
+        <f>SUM(C5:C35)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Journaux_de_travail/Daniel.xlsx
+++ b/Journaux_de_travail/Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEIG-A3S1\PDG\HEIG-2017-PDG-WORDOFF\Journaux_de_travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -96,21 +96,12 @@
 </t>
   </si>
   <si>
-    <t>Ajout de getter et setter intelligent dans la classe Side</t>
-  </si>
-  <si>
     <t>Refactoring des modèles existants dans les modules Common et Server</t>
   </si>
   <si>
     <t>Discussion avec les membres du groupe sur le refactoring a effectué et des adaptations a effectué du côté client</t>
   </si>
   <si>
-    <t>Création d'un service pour le Game</t>
-  </si>
-  <si>
-    <t>Suppression de classe devenue inutile ou redondante</t>
-  </si>
-  <si>
     <t>Refactoring dû aux changements effectués par Antoine, correction de code dû aux erreurs renvoyées et modification des tests du côté serveur (le client sera corrigé demain)</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Réparation du client afin que le groupe s'occupant de l'interface puisse travailler</t>
   </si>
   <si>
-    <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
-  </si>
-  <si>
     <t>Modification des diagrammes de classes</t>
   </si>
   <si>
@@ -135,13 +123,28 @@
     <t>Ajout de méthodes et d’annotations (spring) pour pouvoir jouer une partie et création des méthodes dans le GameController</t>
   </si>
   <si>
-    <t>Lecture et apprentissage du l’utilisation de spring, de la création de requête HTTP en java et de l'utilisation de hibernate</t>
-  </si>
-  <si>
     <t>Discussion avec les membre du groupe sur l'avancement globale du projet et l'utilisation de spring</t>
   </si>
   <si>
     <t>Rajout d'Exception pour la classe GameService qui sont renvoyé au GameController (le système d'envoi de l'erreur au client sera discuté dans les prochain jours avec Christopher)</t>
+  </si>
+  <si>
+    <t>Lecture et apprentissage du l’utilisation de spring</t>
+  </si>
+  <si>
+    <t>Lecture et apprentissage pour la création de requête HTTP en java et de l'utilisation de hibernate</t>
+  </si>
+  <si>
+    <t>Ajout de getter et setter intelligent dans les modèles</t>
+  </si>
+  <si>
+    <t>Création d'un service qui contiendra la logique du Game</t>
+  </si>
+  <si>
+    <t>Suppression de classes devenues inutiles ou redondantes</t>
+  </si>
+  <si>
+    <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée par une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +784,7 @@
         <v>43018</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -798,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43018</v>
       </c>
@@ -858,18 +861,18 @@
         <v>43029</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>43030</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11">
         <v>5</v>
@@ -880,7 +883,7 @@
         <v>43031</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -888,54 +891,54 @@
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>43032</v>
+        <v>43031</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43032</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43032</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>43033</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>43033</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>43033</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11">
         <v>2</v>
@@ -943,60 +946,60 @@
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
+        <v>43033</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>43039</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11">
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>43044</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>43044</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43044</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>43044</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43044</v>
       </c>
@@ -1007,31 +1010,38 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>43045</v>
+        <v>43044</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>43045</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="C36" s="11"/>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>43045</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -1063,8 +1073,8 @@
         <v>19</v>
       </c>
       <c r="C42" s="13">
-        <f>SUM(C5:C35)</f>
-        <v>58</v>
+        <f>SUM(C5:C36)</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Daniel.xlsx
+++ b/Journaux_de_travail/Daniel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -145,6 +145,57 @@
   </si>
   <si>
     <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée par une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
+  </si>
+  <si>
+    <t>Mise en place pour l'initialisation d'une game et test associé</t>
+  </si>
+  <si>
+    <t>Code associé à la logique d'une game du côté serveur (récupréation de tuiles, changement de joueurs, initialisation d'une game, Création du challenge, mise à jour du côté des joueurs) et tests associés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation du wordAnalyser pour tester le challenge envoyé par le joueur et test associé </t>
+  </si>
+  <si>
+    <t>Modification de nom de fichier pour faciliter la récupération de leur contenu (dictionnaires principalement)</t>
+  </si>
+  <si>
+    <t>Résolution des conflits après merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test, résolution de bugs et modification de code associé au GameService </t>
+  </si>
+  <si>
+    <t>Création de code erreur pour informer le client</t>
+  </si>
+  <si>
+    <t>Debugging -&gt; certaines tuiles ayant le même ID apparaissait dans le PlayerRack et le SwapRack</t>
+  </si>
+  <si>
+    <t>Création de la classe représentant le mode tournoi</t>
+  </si>
+  <si>
+    <t>Création d'un service, d'un repository et d'un type pour les modes</t>
+  </si>
+  <si>
+    <t>Modes (logique, récupération dans la BD, méthodes utilisées par le client)</t>
+  </si>
+  <si>
+    <t>Création de la méthodes pour l'initialisation d'un mode</t>
+  </si>
+  <si>
+    <t>Terminaison du code associé aux modes</t>
+  </si>
+  <si>
+    <t>Optimisation du code + lecture des implémentations effectués par mes collégues</t>
+  </si>
+  <si>
+    <t>Tests pour la création et la récupération de modes en BD</t>
+  </si>
+  <si>
+    <t>Ajout de commentaires à mon code</t>
+  </si>
+  <si>
+    <t>Modes (logique, méthodes utilisées par le client)</t>
   </si>
 </sst>
 </file>
@@ -653,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,37 +1095,249 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
+      <c r="A37" s="9">
+        <v>43045</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>43046</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="A41" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>43048</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>43050</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43051</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>43081</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>43088</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43095</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43098</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>43098</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>43099</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>43099</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>43100</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>42737</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="13">
-        <f>SUM(C5:C36)</f>
-        <v>61</v>
+      <c r="C64" s="13">
+        <f>SUM(C5:C63)</f>
+        <v>95.75</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Daniel.xlsx
+++ b/Journaux_de_travail/Daniel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Test simple de l'application et de ses fonctionnalités</t>
   </si>
   <si>
-    <t>Analyse de l'application : partie simple</t>
-  </si>
-  <si>
-    <t>Analyse de l'application : partie tournoi</t>
-  </si>
-  <si>
     <t>Début diagramme de classe (serveur, client et common)</t>
   </si>
   <si>
@@ -89,113 +83,139 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussion avec les membres du groupes :
+    <t>Refactoring des modèles existants dans les modules Common et Server</t>
+  </si>
+  <si>
+    <t>Création de classes Dto supplémentaires afin de renvoyer un minimum d'information au client (PlayerSummaryDto au lieu de PlayerDto)</t>
+  </si>
+  <si>
+    <t>Réparation du client afin que le groupe s'occupant de l'interface puisse travailler</t>
+  </si>
+  <si>
+    <t>Modification des diagrammes de classes</t>
+  </si>
+  <si>
+    <t>Création de la logique pour faire jouer l’AI (avec difficulté dépendant du joueur)</t>
+  </si>
+  <si>
+    <t>Ajout de méthodes et d’annotations (spring) pour pouvoir jouer une partie et création des méthodes dans le GameController</t>
+  </si>
+  <si>
+    <t>Discussion avec les membre du groupe sur l'avancement globale du projet et l'utilisation de spring</t>
+  </si>
+  <si>
+    <t>Lecture et apprentissage du l’utilisation de spring</t>
+  </si>
+  <si>
+    <t>Lecture et apprentissage pour la création de requête HTTP en java et de l'utilisation de hibernate</t>
+  </si>
+  <si>
+    <t>Ajout de getter et setter intelligent dans les modèles</t>
+  </si>
+  <si>
+    <t>Création d'un service qui contiendra la logique du Game</t>
+  </si>
+  <si>
+    <t>Suppression de classes devenues inutiles ou redondantes</t>
+  </si>
+  <si>
+    <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée par une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
+  </si>
+  <si>
+    <t>Modification de nom de fichier pour faciliter la récupération de leur contenu (dictionnaires principalement)</t>
+  </si>
+  <si>
+    <t>Résolution des conflits après merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test, résolution de bugs et modification de code associé au GameService </t>
+  </si>
+  <si>
+    <t>Création de code erreur pour informer le client</t>
+  </si>
+  <si>
+    <t>Debugging -&gt; certaines tuiles ayant le même ID apparaissait dans le PlayerRack et le SwapRack</t>
+  </si>
+  <si>
+    <t>Création de la classe représentant le mode tournoi</t>
+  </si>
+  <si>
+    <t>Création d'un service, d'un repository et d'un type pour les modes</t>
+  </si>
+  <si>
+    <t>Modes (logique, récupération dans la BD, méthodes utilisées par le client)</t>
+  </si>
+  <si>
+    <t>Terminaison du code associé aux modes</t>
+  </si>
+  <si>
+    <t>Optimisation du code + lecture des implémentations effectués par mes collégues</t>
+  </si>
+  <si>
+    <t>Tests pour la création et la récupération de modes en BD</t>
+  </si>
+  <si>
+    <t>Ajout de commentaires à mon code</t>
+  </si>
+  <si>
+    <t>Modes (logique, méthodes utilisées par le client)</t>
+  </si>
+  <si>
+    <t>Refactoring dû aux changements effectués sur le WordAnalyseur, correction de code dû aux erreurs renvoyées et modification des tests du côté serveur (le client sera corrigé demain)</t>
+  </si>
+  <si>
+    <t>Code associé à la logique d'une game du côté serveur (récupération de tuiles, changement de joueurs, initialisation d'une game, Création du challenge, mise à jour du côté des joueurs) et tests associés</t>
+  </si>
+  <si>
+    <t>Discussion avec les membres du groupe sur le refactoring a effectué, des adaptations a effectué du côté client et du protocole</t>
+  </si>
+  <si>
+    <t>Présentation intermédiaire du travail effectué</t>
+  </si>
+  <si>
+    <t>Analyse de l'application</t>
+  </si>
+  <si>
+    <t>Discussion avec les membres du groupes :
 - Attribution des tâches
 - Structure du projet et des paquets
-- Discussion avec le binôme sur la répartition de nos tâches
-</t>
-  </si>
-  <si>
-    <t>Refactoring des modèles existants dans les modules Common et Server</t>
-  </si>
-  <si>
-    <t>Discussion avec les membres du groupe sur le refactoring a effectué et des adaptations a effectué du côté client</t>
-  </si>
-  <si>
-    <t>Refactoring dû aux changements effectués par Antoine, correction de code dû aux erreurs renvoyées et modification des tests du côté serveur (le client sera corrigé demain)</t>
-  </si>
-  <si>
-    <t>Création de classes Dto supplémentaires afin de renvoyer un minimum d'information au client (PlayerSummaryDto au lieu de PlayerDto)</t>
-  </si>
-  <si>
-    <t>Réparation du client afin que le groupe s'occupant de l'interface puisse travailler</t>
-  </si>
-  <si>
-    <t>Modification des diagrammes de classes</t>
-  </si>
-  <si>
-    <t>Création de la logique pour faire jouer l’AI (avec difficulté dépendant du joueur)</t>
-  </si>
-  <si>
-    <t>Discussion avec Christopher d'un refactoring pour passer le travail effectuer en une structure DTO-DAO afin d'éviter d'envoyer des annotations liées à la BD ou au serveur (le client n'a pas besoin de le savoir)</t>
-  </si>
-  <si>
-    <t>Ajout de méthodes et d’annotations (spring) pour pouvoir jouer une partie et création des méthodes dans le GameController</t>
-  </si>
-  <si>
-    <t>Discussion avec les membre du groupe sur l'avancement globale du projet et l'utilisation de spring</t>
-  </si>
-  <si>
-    <t>Rajout d'Exception pour la classe GameService qui sont renvoyé au GameController (le système d'envoi de l'erreur au client sera discuté dans les prochain jours avec Christopher)</t>
-  </si>
-  <si>
-    <t>Lecture et apprentissage du l’utilisation de spring</t>
-  </si>
-  <si>
-    <t>Lecture et apprentissage pour la création de requête HTTP en java et de l'utilisation de hibernate</t>
-  </si>
-  <si>
-    <t>Ajout de getter et setter intelligent dans les modèles</t>
-  </si>
-  <si>
-    <t>Création d'un service qui contiendra la logique du Game</t>
-  </si>
-  <si>
-    <t>Suppression de classes devenues inutiles ou redondantes</t>
-  </si>
-  <si>
-    <t>Suppression de code redondant ou inutile, modification de constructeur et suppression de la classe PlayerSummaryDto qui sera remplacée par une classe liée à l'utilisateur (1 classe pour les stats de l'utilisateur)</t>
-  </si>
-  <si>
-    <t>Mise en place pour l'initialisation d'une game et test associé</t>
-  </si>
-  <si>
-    <t>Code associé à la logique d'une game du côté serveur (récupréation de tuiles, changement de joueurs, initialisation d'une game, Création du challenge, mise à jour du côté des joueurs) et tests associés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation du wordAnalyser pour tester le challenge envoyé par le joueur et test associé </t>
-  </si>
-  <si>
-    <t>Modification de nom de fichier pour faciliter la récupération de leur contenu (dictionnaires principalement)</t>
-  </si>
-  <si>
-    <t>Résolution des conflits après merge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test, résolution de bugs et modification de code associé au GameService </t>
-  </si>
-  <si>
-    <t>Création de code erreur pour informer le client</t>
-  </si>
-  <si>
-    <t>Debugging -&gt; certaines tuiles ayant le même ID apparaissait dans le PlayerRack et le SwapRack</t>
-  </si>
-  <si>
-    <t>Création de la classe représentant le mode tournoi</t>
-  </si>
-  <si>
-    <t>Création d'un service, d'un repository et d'un type pour les modes</t>
-  </si>
-  <si>
-    <t>Modes (logique, récupération dans la BD, méthodes utilisées par le client)</t>
-  </si>
-  <si>
-    <t>Création de la méthodes pour l'initialisation d'un mode</t>
-  </si>
-  <si>
-    <t>Terminaison du code associé aux modes</t>
-  </si>
-  <si>
-    <t>Optimisation du code + lecture des implémentations effectués par mes collégues</t>
-  </si>
-  <si>
-    <t>Tests pour la création et la récupération de modes en BD</t>
-  </si>
-  <si>
-    <t>Ajout de commentaires à mon code</t>
-  </si>
-  <si>
-    <t>Modes (logique, méthodes utilisées par le client)</t>
+- Discussion avec le binôme sur la répartition de nos tâches</t>
+  </si>
+  <si>
+    <t>Discussion d'un refactoring pour passer le travail effectuer en une structure DTO-DAO afin d'éviter d'envoyer des annotations liées à la BD ou au serveur (le client n'a pas besoin de le savoir)</t>
+  </si>
+  <si>
+    <t>Rajout d'Exception pour la classe GameService qui sont renvoyé au GameController (le système d'envoi de l'erreur au client sera discuté dans les prochain jours)</t>
+  </si>
+  <si>
+    <t>Travail sur l'initialisation d'une game et test associé</t>
+  </si>
+  <si>
+    <t>Discussion sur les modes, les pouvoirs et sur l'avancement du projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation du WordAnalyser pour tester le challenge envoyé par le joueur et test associé </t>
+  </si>
+  <si>
+    <t>Préparation de la présentation intermédiaire</t>
+  </si>
+  <si>
+    <t>Lecture et réflexion du code implémenté du côté serveur pour l'implémentation des modes</t>
+  </si>
+  <si>
+    <t>Création de la méthode pour l'initialisation d'un mode</t>
+  </si>
+  <si>
+    <t>Préparation du rapport final</t>
+  </si>
+  <si>
+    <t>Aide et conseil pour l'équipe qui s'occupe du client</t>
+  </si>
+  <si>
+    <t>Travail sur le rapport</t>
+  </si>
+  <si>
+    <t>Debugging de l'AI</t>
   </si>
 </sst>
 </file>
@@ -704,16 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="1" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -780,7 +800,7 @@
         <v>43004</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
@@ -791,7 +811,7 @@
         <v>43008</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
@@ -802,7 +822,7 @@
         <v>43011</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11">
         <v>4</v>
@@ -813,7 +833,7 @@
         <v>43016</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11">
         <v>1.5</v>
@@ -824,7 +844,7 @@
         <v>43018</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
@@ -835,7 +855,7 @@
         <v>43018</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -846,18 +866,18 @@
         <v>43018</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43018</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -868,7 +888,7 @@
         <v>75892</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -879,7 +899,7 @@
         <v>43021</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -890,7 +910,7 @@
         <v>43029</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11">
         <v>4</v>
@@ -901,7 +921,7 @@
         <v>43029</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -912,7 +932,7 @@
         <v>43029</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
@@ -923,7 +943,7 @@
         <v>43030</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11">
         <v>5</v>
@@ -934,7 +954,7 @@
         <v>43031</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -945,10 +965,10 @@
         <v>43031</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -956,18 +976,18 @@
         <v>43032</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C24" s="11">
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43032</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -978,7 +998,7 @@
         <v>43033</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11">
         <v>2</v>
@@ -989,7 +1009,7 @@
         <v>43033</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11">
         <v>2</v>
@@ -1000,7 +1020,7 @@
         <v>43033</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C28" s="11">
         <v>2</v>
@@ -1011,7 +1031,7 @@
         <v>43039</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C29" s="11">
         <v>3.5</v>
@@ -1022,7 +1042,7 @@
         <v>43044</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11">
         <v>2</v>
@@ -1033,7 +1053,7 @@
         <v>43044</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C31" s="11">
         <v>2</v>
@@ -1044,7 +1064,7 @@
         <v>43044</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -1055,7 +1075,7 @@
         <v>43044</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" s="11">
         <v>0.5</v>
@@ -1066,7 +1086,7 @@
         <v>43044</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C34" s="11">
         <v>0.5</v>
@@ -1077,7 +1097,7 @@
         <v>43045</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
@@ -1088,7 +1108,7 @@
         <v>43045</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
@@ -1099,32 +1119,32 @@
         <v>43045</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C37" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>43046</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C38" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>43047</v>
+        <v>43046</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C39" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1132,95 +1152,95 @@
         <v>43047</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C40" s="11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>43047</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
+        <v>43047</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>43048</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="B43" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>43050</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="11">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>43051</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
+        <v>43050</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>43051</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43053</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>43081</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>43088</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>43095</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>43098</v>
-      </c>
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="11">
         <v>3</v>
@@ -1228,98 +1248,146 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>43098</v>
+        <v>43081</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C49" s="11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
-        <v>43099</v>
+        <v>43088</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C50" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>43099</v>
+        <v>43095</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C51" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
-        <v>43100</v>
+        <v>43098</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C52" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
+        <v>43098</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>43099</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>43099</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>43100</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>42737</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="9">
+        <v>42738</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
+      <c r="A59" s="9">
+        <v>42740</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="9">
+        <v>42740</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="9">
+        <v>42740</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
@@ -1332,12 +1400,17 @@
       <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="13">
-        <f>SUM(C5:C63)</f>
-        <v>95.75</v>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="13">
+        <f>SUM(C5:C64)</f>
+        <v>109.75</v>
       </c>
     </row>
   </sheetData>
